--- a/TissueWeight.xlsx
+++ b/TissueWeight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="18120" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-32900" yWindow="-1340" windowWidth="18280" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$79</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -130,8 +130,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -248,6 +280,22 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -284,6 +332,22 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,11 +677,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -663,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -707,7 +772,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -751,7 +816,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -795,7 +860,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5">
         <v>2</v>
       </c>
@@ -839,7 +904,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6">
         <v>3</v>
       </c>
@@ -883,7 +948,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7">
         <v>3</v>
       </c>
@@ -927,7 +992,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8">
         <v>5</v>
       </c>
@@ -971,7 +1036,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1015,7 +1080,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1059,7 +1124,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1103,7 +1168,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1147,7 +1212,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1191,7 +1256,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1235,7 +1300,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1279,7 +1344,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1323,7 +1388,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17">
         <v>21</v>
       </c>
@@ -1367,7 +1432,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18">
         <v>22</v>
       </c>
@@ -1411,7 +1476,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1455,7 +1520,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1543,7 +1608,7 @@
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22">
         <v>29</v>
       </c>
@@ -1631,7 +1696,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24">
         <v>30</v>
       </c>
@@ -1719,7 +1784,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26">
         <v>48</v>
       </c>
@@ -1763,7 +1828,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27">
         <v>48</v>
       </c>
@@ -1807,7 +1872,7 @@
         <v>0.12839999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28">
         <v>49</v>
       </c>
@@ -1895,7 +1960,7 @@
         <v>0.18149999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30">
         <v>50</v>
       </c>
@@ -1983,7 +2048,7 @@
         <v>0.2243</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32">
         <v>52</v>
       </c>
@@ -2071,7 +2136,7 @@
         <v>0.1183</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34">
         <v>53</v>
       </c>
@@ -2159,7 +2224,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2247,7 +2312,7 @@
         <v>0.1971</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38">
         <v>58</v>
       </c>
@@ -2335,7 +2400,7 @@
         <v>0.15820000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40">
         <v>60</v>
       </c>
@@ -2423,7 +2488,7 @@
         <v>0.20130000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42">
         <v>62</v>
       </c>
@@ -2467,7 +2532,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43">
         <v>62</v>
       </c>
@@ -2511,7 +2576,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44">
         <v>64</v>
       </c>
@@ -2555,7 +2620,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45">
         <v>64</v>
       </c>
@@ -2599,7 +2664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46">
         <v>67</v>
       </c>
@@ -2643,7 +2708,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47">
         <v>67</v>
       </c>
@@ -2687,7 +2752,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48">
         <v>68</v>
       </c>
@@ -2731,7 +2796,7 @@
         <v>0.1134</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1">
       <c r="A49">
         <v>68</v>
       </c>
@@ -2775,7 +2840,7 @@
         <v>0.1699</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" hidden="1">
       <c r="A50">
         <v>70</v>
       </c>
@@ -2819,7 +2884,7 @@
         <v>6.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51">
         <v>70</v>
       </c>
@@ -2863,7 +2928,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1">
+    <row r="52" spans="1:12" s="2" customFormat="1" hidden="1">
       <c r="A52" s="2">
         <v>80</v>
       </c>
@@ -2907,7 +2972,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1">
+    <row r="53" spans="1:12" s="2" customFormat="1" hidden="1">
       <c r="A53" s="2">
         <v>80</v>
       </c>
@@ -2951,7 +3016,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1">
+    <row r="54" spans="1:12" s="2" customFormat="1" hidden="1">
       <c r="A54" s="2">
         <v>81</v>
       </c>
@@ -2995,7 +3060,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1">
+    <row r="55" spans="1:12" s="2" customFormat="1" hidden="1">
       <c r="A55" s="2">
         <v>81</v>
       </c>
@@ -3039,7 +3104,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1">
+    <row r="56" spans="1:12" s="2" customFormat="1" hidden="1">
       <c r="A56" s="2">
         <v>82</v>
       </c>
@@ -3083,7 +3148,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1">
+    <row r="57" spans="1:12" s="2" customFormat="1" hidden="1">
       <c r="A57" s="2">
         <v>82</v>
       </c>
@@ -3127,7 +3192,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1">
       <c r="A58" s="3">
         <v>88</v>
       </c>
@@ -3171,7 +3236,7 @@
         <v>0.10340000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1">
       <c r="A59" s="3">
         <v>88</v>
       </c>
@@ -3215,7 +3280,7 @@
         <v>0.35049999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1">
       <c r="A60" s="3">
         <v>89</v>
       </c>
@@ -3259,7 +3324,7 @@
         <v>0.11840000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1">
       <c r="A61" s="3">
         <v>89</v>
       </c>
@@ -3303,7 +3368,7 @@
         <v>0.3669</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1">
       <c r="A62" s="3">
         <v>94</v>
       </c>
@@ -3347,7 +3412,7 @@
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1">
       <c r="A63" s="3">
         <v>94</v>
       </c>
@@ -3391,7 +3456,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1">
       <c r="A64" s="3">
         <v>95</v>
       </c>
@@ -3435,7 +3500,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" s="3">
         <v>95</v>
       </c>
@@ -3479,7 +3544,7 @@
         <v>0.19969999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" s="3">
         <v>96</v>
       </c>
@@ -3523,7 +3588,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" s="3">
         <v>96</v>
       </c>
@@ -3567,7 +3632,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68" s="3">
         <v>108</v>
       </c>
@@ -3611,7 +3676,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" s="3">
         <v>108</v>
       </c>
@@ -3655,7 +3720,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" s="3">
         <v>109</v>
       </c>
@@ -3699,7 +3764,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71" s="3">
         <v>109</v>
       </c>
@@ -3743,7 +3808,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1">
       <c r="A72" s="3">
         <v>110</v>
       </c>
@@ -3787,7 +3852,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73" s="3">
         <v>110</v>
       </c>
@@ -3831,7 +3896,7 @@
         <v>0.39219999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1">
       <c r="A74" s="3">
         <v>111</v>
       </c>
@@ -3875,7 +3940,7 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1">
       <c r="A75" s="3">
         <v>111</v>
       </c>
@@ -3919,7 +3984,7 @@
         <v>0.39419999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1">
       <c r="A76" s="3">
         <v>113</v>
       </c>
@@ -3963,7 +4028,7 @@
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" s="3">
         <v>113</v>
       </c>
@@ -4007,7 +4072,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78" s="3">
         <v>114</v>
       </c>
@@ -4051,7 +4116,7 @@
         <v>5.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79" s="3">
         <v>114</v>
       </c>
@@ -4096,7 +4161,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L78"/>
+  <autoFilter ref="A1:L79">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="StAug2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="WSM"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="high"/>
+        <filter val="low"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Shoot"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
